--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59709.22939310574</v>
+        <v>11738826.93585618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59709.22939310574</v>
+        <v>11738826.93585618</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11832.60645085354</v>
+        <v>1578127.120666759</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11832.60645085354</v>
+        <v>1578127.120666759</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419794077.226764</v>
+        <v>58117221.75929486</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12559.98503080243</v>
+        <v>1411351.039093773</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23548.79021382268</v>
+        <v>2576274.801401422</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34537.59539684292</v>
+        <v>3741198.563709074</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45766.59569396939</v>
+        <v>4830638.572238361</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56931.03807563957</v>
+        <v>6000030.397033614</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67965.89970595069</v>
+        <v>7166473.286911688</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78986.33335698869</v>
+        <v>8331397.049219334</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90006.76700802667</v>
+        <v>9496320.811526978</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101514.3459621607</v>
+        <v>10506459.23225268</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112726.1853448548</v>
+        <v>11691405.32681063</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123777.4477702781</v>
+        <v>12850521.90510999</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134828.7101957013</v>
+        <v>14009638.48340935</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145879.9726211245</v>
+        <v>15168755.06170872</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157167.8998724619</v>
+        <v>16253564.71415542</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>170095.3562931043</v>
+        <v>17073870.87615688</v>
       </c>
     </row>
   </sheetData>
